--- a/2017-10-1-count.xlsx
+++ b/2017-10-1-count.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Bacillus_Competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Task2_Competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU127"/>
+  <dimension ref="A1:AU145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3049,6 +3049,366 @@
         <v>7</v>
       </c>
     </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>15</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>15</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>15</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>15</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>15</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>15</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>15</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>15</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>15</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E140" s="1">
+        <v>2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>15</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>15</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>15</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
